--- a/apps/location/management/commands/cities-5-ukr.xlsx
+++ b/apps/location/management/commands/cities-5-ukr.xlsx
@@ -12826,7 +12826,7 @@
     <t xml:space="preserve">Уксбрідж</t>
   </si>
   <si>
-    <t xml:space="preserve">Uzhgorod</t>
+    <t xml:space="preserve">Uzhhorod</t>
   </si>
   <si>
     <t xml:space="preserve">Ужгород</t>
@@ -14515,11 +14515,11 @@
   </sheetPr>
   <dimension ref="A1:B2408"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2003" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2011" activeCellId="0" sqref="D2011"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2128" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2146" activeCellId="0" sqref="A2146"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.66015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="22.62"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.63"/>
